--- a/public/files/templates/wbs.xlsx
+++ b/public/files/templates/wbs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/apps/cost-control/public/files/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar.garana\Desktop\cost-control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WBS " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>WBS Level 1</t>
   </si>
   <si>
@@ -48,12 +45,15 @@
   </si>
   <si>
     <t>WBS Level 6</t>
+  </si>
+  <si>
+    <t>Code (WBS Path)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -79,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,25 +87,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WBS" displayName="WBS" ref="A1:G48" headerRowDxfId="0">
+  <autoFilter ref="A1:G48"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Code (WBS Path)" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="WBS Level 1"/>
+    <tableColumn id="3" name="WBS Level 2"/>
+    <tableColumn id="4" name="WBS Level 3"/>
+    <tableColumn id="5" name="WBS Level 4"/>
+    <tableColumn id="6" name="WBS Level 5"/>
+    <tableColumn id="7" name="WBS Level 6" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,42 +421,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="38.296875" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="32.3984375" customWidth="1"/>
+    <col min="7" max="8" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>